--- a/src/pypelay/static_summary.xlsx
+++ b/src/pypelay/static_summary.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daveh\Github\pypelay\src\pypelay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daveh\Github\J017-Sapura2\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC332AFE-1918-4390-B089-EE3CCEB5D768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58888AE-0364-4ECD-84B0-3DA7290F7164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8745" yWindow="1095" windowWidth="14730" windowHeight="14700" xr2:uid="{2621F2DE-D71B-48F5-8B35-6A448AB82D69}"/>
+    <workbookView xWindow="7230" yWindow="735" windowWidth="18675" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,23 +33,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="55">
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Orcaflex file</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Vessel</t>
+  </si>
+  <si>
+    <t>Water depth</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Stinger configuration</t>
+  </si>
   <si>
     <t>Stinger radius</t>
   </si>
   <si>
-    <t>Vessel</t>
-  </si>
-  <si>
-    <t>Water depth</t>
-  </si>
-  <si>
     <t>Number of sections</t>
   </si>
   <si>
+    <t>Pipe data</t>
+  </si>
+  <si>
     <t>Pipe OD</t>
   </si>
   <si>
+    <t>mm</t>
+  </si>
+  <si>
     <t>Pipe wall thickness</t>
   </si>
   <si>
@@ -62,30 +80,78 @@
     <t>Coating density</t>
   </si>
   <si>
-    <t>Pipe data</t>
+    <t>kg/m^3</t>
+  </si>
+  <si>
+    <t>Lining thickness</t>
+  </si>
+  <si>
+    <t>Lining density</t>
+  </si>
+  <si>
+    <t>Weight in air (empty)</t>
+  </si>
+  <si>
+    <t>kg/m</t>
   </si>
   <si>
     <t>Weight submerged (empty)</t>
   </si>
   <si>
-    <t>Stinger configuration</t>
-  </si>
-  <si>
     <t>Static results</t>
   </si>
   <si>
+    <t>Bollard pull</t>
+  </si>
+  <si>
+    <t>kN</t>
+  </si>
+  <si>
     <t>Pipe top tension</t>
   </si>
   <si>
-    <t>Bollard pull</t>
-  </si>
-  <si>
-    <t>Overbend UC</t>
+    <t>Layback (from bead stall)</t>
+  </si>
+  <si>
+    <t>Scope length</t>
+  </si>
+  <si>
+    <t>Pipe gain</t>
+  </si>
+  <si>
+    <t>Stinger tip clearance</t>
+  </si>
+  <si>
+    <t>Stinger draft</t>
+  </si>
+  <si>
+    <t>Seabed clearance</t>
+  </si>
+  <si>
+    <t>Pipe loads, UC</t>
+  </si>
+  <si>
+    <t>Overbend UC, LCC</t>
+  </si>
+  <si>
+    <t>Overbend UC, DCC</t>
+  </si>
+  <si>
+    <t>Overbend strain</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
   <si>
     <t>Sag bend UC</t>
   </si>
   <si>
+    <t>Sag bend stress</t>
+  </si>
+  <si>
+    <t>MPa</t>
+  </si>
+  <si>
     <t>Roller loads:</t>
   </si>
   <si>
@@ -131,40 +197,7 @@
     <t>SR12</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>kg/m^3</t>
-  </si>
-  <si>
-    <t>kg/m</t>
-  </si>
-  <si>
-    <t>kN</t>
-  </si>
-  <si>
-    <t>Orcaflex file</t>
-  </si>
-  <si>
-    <t>Stinger tip clearance</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Lining thickness</t>
-  </si>
-  <si>
-    <t>Lining density</t>
-  </si>
-  <si>
-    <t>Weight in air (empty)</t>
+    <t>Roller depths:</t>
   </si>
 </sst>
 </file>
@@ -175,7 +208,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,12 +220,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -218,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -242,6 +269,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,100 +606,313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44DB1F1-C857-45D0-B3A2-C49B9A902BB5}">
-  <dimension ref="A1:N41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="2" customWidth="1"/>
-    <col min="3" max="13" width="10.42578125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="4"/>
+    <col min="3" max="14" width="10.28515625" style="4" customWidth="1"/>
+    <col min="15" max="22" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4">
+        <f t="shared" ref="M1:V1" si="0">L1 + 1</f>
+        <v>11</v>
+      </c>
+      <c r="N1" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O1" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P1" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q1" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R1" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S1" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="T1" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U1" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V1" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -678,13 +922,25 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -694,13 +950,25 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -710,13 +978,25 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -726,13 +1006,25 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -742,13 +1034,25 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -758,19 +1062,31 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -780,13 +1096,25 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -796,66 +1124,177 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -865,109 +1304,154 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>20</v>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>23</v>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -977,45 +1461,52 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1025,13 +1516,25 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -1041,13 +1544,25 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1057,13 +1572,25 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -1073,10 +1600,698 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/src/pypelay/static_summary.xlsx
+++ b/src/pypelay/static_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daveh\Github\J017-Sapura2\working\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daveh\Github\J017-Sapura\pypelay\src\pypelay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58888AE-0364-4ECD-84B0-3DA7290F7164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47C9AAF-C99D-4544-935F-C8D56BA17C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="735" windowWidth="18675" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="1035" windowWidth="17580" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="61">
   <si>
     <t>Units</t>
   </si>
@@ -198,6 +198,24 @@
   </si>
   <si>
     <t>Roller depths:</t>
+  </si>
+  <si>
+    <t>Section 1 angle</t>
+  </si>
+  <si>
+    <t>Section 2 angle</t>
+  </si>
+  <si>
+    <t>Section 3 angle</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>Pipe entrance angle</t>
+  </si>
+  <si>
+    <t>Pipe lift-off angle</t>
   </si>
 </sst>
 </file>
@@ -607,7 +625,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH67"/>
+  <dimension ref="A1:AH72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -845,18 +863,68 @@
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
     </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+    </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -870,102 +938,52 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -993,66 +1011,66 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1075,18 +1093,68 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
     </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+    </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3"/>
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1109,68 +1177,18 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-    </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1195,10 +1213,10 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1223,35 +1241,35 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
@@ -1276,22 +1294,10 @@
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>5</v>
@@ -1316,165 +1322,207 @@
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="9"/>
-      <c r="AH28" s="9"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -1496,73 +1544,96 @@
       <c r="U36" s="12"/>
       <c r="V36" s="12"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1585,65 +1656,36 @@
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>23</v>
@@ -1669,9 +1711,9 @@
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>23</v>
@@ -1697,9 +1739,9 @@
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>23</v>
@@ -1725,9 +1767,9 @@
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>23</v>
@@ -1753,9 +1795,9 @@
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>23</v>
@@ -1781,9 +1823,9 @@
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>23</v>
@@ -1811,7 +1853,7 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>23</v>
@@ -1839,7 +1881,7 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>23</v>
@@ -1867,7 +1909,7 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>23</v>
@@ -1893,17 +1935,68 @@
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
     </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+    </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
+      <c r="A53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -1928,10 +2021,10 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -1956,10 +2049,10 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -1982,65 +2075,14 @@
       <c r="U56" s="9"/>
       <c r="V56" s="9"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
-    </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-      <c r="V58" s="9"/>
+      <c r="A58" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>5</v>
@@ -2068,7 +2110,7 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>5</v>
@@ -2096,7 +2138,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>5</v>
@@ -2124,7 +2166,7 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>5</v>
@@ -2152,7 +2194,7 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>5</v>
@@ -2180,7 +2222,7 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>5</v>
@@ -2208,7 +2250,7 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>5</v>
@@ -2236,7 +2278,7 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>5</v>
@@ -2264,7 +2306,7 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>5</v>
@@ -2290,6 +2332,146 @@
       <c r="U67" s="9"/>
       <c r="V67" s="9"/>
     </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/pypelay/static_summary.xlsx
+++ b/src/pypelay/static_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daveh\Github\J017-Sapura\pypelay\src\pypelay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47C9AAF-C99D-4544-935F-C8D56BA17C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F17214-C0D6-446E-A6B6-A6196629206A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="1035" windowWidth="17580" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="2190" windowWidth="16800" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
   <si>
     <t>Units</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Weight in air (empty)</t>
   </si>
   <si>
-    <t>kg/m</t>
-  </si>
-  <si>
     <t>Weight submerged (empty)</t>
   </si>
   <si>
@@ -128,27 +125,6 @@
     <t>Seabed clearance</t>
   </si>
   <si>
-    <t>Pipe loads, UC</t>
-  </si>
-  <si>
-    <t>Overbend UC, LCC</t>
-  </si>
-  <si>
-    <t>Overbend UC, DCC</t>
-  </si>
-  <si>
-    <t>Overbend strain</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Sag bend UC</t>
-  </si>
-  <si>
-    <t>Sag bend stress</t>
-  </si>
-  <si>
     <t>MPa</t>
   </si>
   <si>
@@ -216,6 +192,69 @@
   </si>
   <si>
     <t>Pipe lift-off angle</t>
+  </si>
+  <si>
+    <t>vm strain, overbend</t>
+  </si>
+  <si>
+    <t>vm strain, sag bend</t>
+  </si>
+  <si>
+    <t>vm strain, stinger tip</t>
+  </si>
+  <si>
+    <t>vm stress, overbend</t>
+  </si>
+  <si>
+    <t>vm stress, stinger tip</t>
+  </si>
+  <si>
+    <t>vm stress, sag bend</t>
+  </si>
+  <si>
+    <t>Max bending strain, overbend</t>
+  </si>
+  <si>
+    <t>Pipe stress and strain</t>
+  </si>
+  <si>
+    <t>F101 DCC, overbend (a)</t>
+  </si>
+  <si>
+    <t>F101 LCC, overbend (a)</t>
+  </si>
+  <si>
+    <t>F101 LCC, tip (a)</t>
+  </si>
+  <si>
+    <t>F101 LCC, sag bend (a)</t>
+  </si>
+  <si>
+    <t>F101 DCC, overbend (b)</t>
+  </si>
+  <si>
+    <t>F101 LCC, overbend (b)</t>
+  </si>
+  <si>
+    <t>F101 LCC, tip (b)</t>
+  </si>
+  <si>
+    <t>F101 LCC, sag bend (b)</t>
+  </si>
+  <si>
+    <t>Pipe UC</t>
+  </si>
+  <si>
+    <t>Concrete weight coating?</t>
+  </si>
+  <si>
+    <t>kgf/m</t>
+  </si>
+  <si>
+    <t>y/n</t>
+  </si>
+  <si>
+    <t>SNIF / SCF</t>
   </si>
 </sst>
 </file>
@@ -625,16 +664,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH72"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="2" customWidth="1"/>
     <col min="3" max="14" width="10.28515625" style="4" customWidth="1"/>
     <col min="15" max="22" width="10.28515625" customWidth="1"/>
@@ -865,10 +904,10 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -893,10 +932,10 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -921,10 +960,10 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1011,10 +1050,10 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1039,35 +1078,35 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
@@ -1095,7 +1134,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>15</v>
@@ -1123,10 +1162,10 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1151,100 +1190,100 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1269,10 +1308,10 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1297,7 +1336,7 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>5</v>
@@ -1325,35 +1364,35 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>5</v>
@@ -1378,65 +1417,41 @@
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="9"/>
-      <c r="AH30" s="9"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1473,10 +1488,10 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1511,73 +1526,97 @@
       <c r="AG33" s="9"/>
       <c r="AH33" s="9"/>
     </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="9"/>
+    </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="9"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
+      <c r="A37" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1602,7 +1641,7 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>2</v>
@@ -1630,65 +1669,94 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>39</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>40</v>
+      <c r="A43" t="s">
+        <v>58</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -1702,390 +1770,383 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>41</v>
+      <c r="A44" t="s">
+        <v>59</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
+      <c r="A46" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>44</v>
+      <c r="A47" t="s">
+        <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>45</v>
+      <c r="A48" t="s">
+        <v>62</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>46</v>
+      <c r="A49" t="s">
+        <v>63</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>47</v>
+      <c r="A50" t="s">
+        <v>64</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>48</v>
+      <c r="A51" t="s">
+        <v>65</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>49</v>
+      <c r="A52" t="s">
+        <v>66</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>50</v>
+      <c r="A53" t="s">
+        <v>67</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>51</v>
+      <c r="A54" t="s">
+        <v>68</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-      <c r="V55" s="9"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
+      <c r="A56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>54</v>
-      </c>
+      <c r="A58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -2110,10 +2171,10 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -2138,10 +2199,10 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -2166,10 +2227,10 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -2194,10 +2255,10 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -2222,10 +2283,10 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -2250,10 +2311,10 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -2278,10 +2339,10 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -2306,10 +2367,10 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -2334,10 +2395,10 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -2362,10 +2423,10 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -2390,10 +2451,10 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -2416,61 +2477,402 @@
       <c r="U70" s="9"/>
       <c r="V70" s="9"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B71" s="2" t="s">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B72" s="2" t="s">
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
-      <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="9"/>
+      <c r="V82" s="9"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="9"/>
+      <c r="V84" s="9"/>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9"/>
+      <c r="V85" s="9"/>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
+      <c r="U86" s="9"/>
+      <c r="V86" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
